--- a/assets/modules/seagrass-shoots/MarineGEO_Seagrass-Shoots_DataEntryTemplate_v0.0.1.xlsx
+++ b/assets/modules/seagrass-shoots/MarineGEO_Seagrass-Shoots_DataEntryTemplate_v0.0.1.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
   <si>
-    <t>MarineGEO Shoots Quadrat Template</t>
+    <t>MarineGEO Seagrass Shoots Template</t>
   </si>
   <si>
     <t>Title</t>
@@ -66,7 +66,7 @@
     <t>WorkbookBuildInfo</t>
   </si>
   <si>
-    <t>Created using MarinegeoTemplateBuilder v0.1.8 on 2018-11-09 11:14</t>
+    <t>Created using MarinegeoTemplateBuilder v0.1.8 on 2018-11-09 12:13</t>
   </si>
   <si>
     <t>site</t>
